--- a/biology/Botanique/Phaseolinae/Phaseolinae.xlsx
+++ b/biology/Botanique/Phaseolinae/Phaseolinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Phaseolinae sont une sous-tribu de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, qui comprend 23 genres et environ 340 espèces, originaires pour la plupart d'Asie, d'Afrique et de Madagascar, et pour 6 genres du continent américain[1]. C'est, avec les Cajaninae, Clitoriinae, Ophrestiinae, Kennediinae, Erythininae, Diocleinae et Glycininae, l'une des huit sous-tribus qui composent la tribu des Phaseoleae[2]. 
-Le genre-type est Phaseolus L[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Phaseolinae sont une sous-tribu de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, qui comprend 23 genres et environ 340 espèces, originaires pour la plupart d'Asie, d'Afrique et de Madagascar, et pour 6 genres du continent américain. C'est, avec les Cajaninae, Clitoriinae, Ophrestiinae, Kennediinae, Erythininae, Diocleinae et Glycininae, l'une des huit sous-tribus qui composent la tribu des Phaseoleae. 
+Le genre-type est Phaseolus L.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les genres inclus dans la sous-tribu des Phaseolinae sont les suivants[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres inclus dans la sous-tribu des Phaseolinae sont les suivants :
 Wajira (précédemment inclus dans les Phaseolastrae),
 Sphenostylis, Nesphostylis, Dolichos et Macrotyloma, (exclus des Phaseolastrae)
 Lablab, Dipogon, Spathionema et Vatovaea (inclus dans les Phaseolastrae),
